--- a/References/資料庫表格_final.xlsx
+++ b/References/資料庫表格_final.xlsx
@@ -1,41 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030\Desktop\Artists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Artists_treasure\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5381CCA-9BD7-429D-A74F-433F42B1B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBA4875-FA7B-47C8-8455-755F06C21760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1293623F-8002-422D-887D-9A1488933041}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="3" r:id="rId1"/>
-    <sheet name="現上展覽" sheetId="19" r:id="rId2"/>
-    <sheet name="收藏品資料表(COLLECTION)" sheetId="6" r:id="rId3"/>
-    <sheet name="主題資料表(THEME)" sheetId="17" r:id="rId4"/>
-    <sheet name="存放位置資料表(PLACE)" sheetId="18" r:id="rId5"/>
-    <sheet name="販售與轉賣資料表(TRADE)" sheetId="5" r:id="rId6"/>
-    <sheet name="販售與轉賣明細資料表(TRADEDETAIL)" sheetId="8" r:id="rId7"/>
-    <sheet name="展覽資料表(EXHIBITION)" sheetId="11" r:id="rId8"/>
-    <sheet name="展覽明細資料表(EXHIBITIONDETAIL)" sheetId="12" r:id="rId9"/>
-    <sheet name="賽事資料表(CONTEST)" sheetId="14" r:id="rId10"/>
-    <sheet name="賽事明細資料表(CONTESTDETAIL)" sheetId="15" r:id="rId11"/>
+    <sheet name="現上展覽資料表(Onlineexhibition)" sheetId="19" r:id="rId2"/>
+    <sheet name="現上展覽明細資料表(ONLINEEXHIBITIONDETA)" sheetId="21" r:id="rId3"/>
+    <sheet name="收藏品資料表(COLLECTION)" sheetId="6" r:id="rId4"/>
+    <sheet name="主題資料表(THEME)" sheetId="17" r:id="rId5"/>
+    <sheet name="存放位置資料表(PLACE)" sheetId="18" r:id="rId6"/>
+    <sheet name="販售與轉賣資料表(TRADE)" sheetId="5" r:id="rId7"/>
+    <sheet name="販售與轉賣明細資料表(TRADEDETAIL)" sheetId="8" r:id="rId8"/>
+    <sheet name="工作表1" sheetId="20" r:id="rId9"/>
+    <sheet name="展覽資料表(EXHIBITION)" sheetId="11" r:id="rId10"/>
+    <sheet name="展覽明細資料表(EXHIBITIONDETAIL)" sheetId="12" r:id="rId11"/>
+    <sheet name="賽事資料表(CONTEST)" sheetId="14" r:id="rId12"/>
+    <sheet name="賽事明細資料表(CONTESTDETAIL)" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="219">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,6 +853,92 @@
   </si>
   <si>
     <t>PE00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_FINISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_INTRODUCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN_REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現上展覽明細資料表(ONLINEEXHIBITIONDETAIL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEND_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>線上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>展覽編號</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上展覽名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上展覽明細編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上展覽編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上展覽作品別名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEND_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEND00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEN00001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1203,18 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1123,9 +1234,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1163,7 +1274,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1269,7 +1380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1411,7 +1522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1422,18 +1533,18 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.625" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1734,7 +1845,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>114</v>
       </c>
@@ -1811,6 +1922,405 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C8E95C-CD2E-43EE-A649-8817C47B6C27}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5">
+      <c r="A3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5">
+      <c r="A4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
+      <c r="A6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
+        <v>45447</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5">
+      <c r="A7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <v>45451</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CF73E9-2645-4EC5-AEA7-A85E3720DF83}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C94E7FE-67E1-48DD-A82A-F4B294148CC7}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -1818,14 +2328,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2005,7 +2515,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.6">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>147</v>
       </c>
@@ -2048,22 +2558,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAADB46-268D-44AC-96C4-DBC8DAA2CEB7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2231,20 +2741,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFF5110-2845-4BB2-B167-0536C4591CAD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4568BE-6CDE-499E-BB76-F0C18C20C285}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116F66E-B285-4978-8D07-6049E982F6A1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -2252,15 +3100,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2313,7 +3161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>104</v>
       </c>
@@ -2336,7 +3184,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="5" t="s">
         <v>117</v>
       </c>
@@ -2356,7 +3204,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="5" t="s">
         <v>118</v>
       </c>
@@ -2376,7 +3224,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="5" t="s">
         <v>119</v>
       </c>
@@ -2396,7 +3244,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
@@ -2419,7 +3267,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.2">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="16.5">
       <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
@@ -2443,7 +3291,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.2">
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="16.5">
       <c r="A9" s="5" t="s">
         <v>122</v>
       </c>
@@ -2467,7 +3315,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.2">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="5" t="s">
         <v>158</v>
       </c>
@@ -2491,7 +3339,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.2">
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="16.5">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
@@ -2552,7 +3400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="16.2">
+    <row r="14" spans="1:8" customFormat="1" ht="16.5">
       <c r="A14" s="5" t="s">
         <v>162</v>
       </c>
@@ -2574,7 +3422,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="5" t="s">
         <v>124</v>
       </c>
@@ -2597,7 +3445,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>125</v>
       </c>
@@ -2617,7 +3465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.2">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="5" t="s">
         <v>126</v>
       </c>
@@ -2663,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34B84A-9FC2-4EA1-8FCC-C67C024CCA71}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2671,15 +3519,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2752,7 +3600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4618F401-1467-4C08-8880-A57083708833}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2760,15 +3608,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2838,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A364A2B7-A0F3-4F09-8D31-79A411466D1A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -2846,15 +3694,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2947,7 +3795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="32" t="s">
         <v>174</v>
       </c>
@@ -2967,7 +3815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="32" t="s">
         <v>175</v>
       </c>
@@ -2990,7 +3838,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="32" t="s">
         <v>176</v>
       </c>
@@ -3007,7 +3855,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="32" t="s">
         <v>177</v>
       </c>
@@ -3094,199 +3942,6 @@
     <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
         <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA6804-BB9E-43A9-8B7F-581E4C299FFF}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.6">
-      <c r="A2" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8">
-        <v>640000</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="33" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3297,23 +3952,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C8E95C-CD2E-43EE-A649-8817C47B6C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA6804-BB9E-43A9-8B7F-581E4C299FFF}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3342,351 +3996,167 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.75">
+      <c r="A2" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>82</v>
+      <c r="F2" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2">
-      <c r="A3" s="5" t="s">
-        <v>137</v>
+    <row r="3" spans="1:8">
+      <c r="A3" s="32" t="s">
+        <v>173</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2">
-      <c r="A5" s="5" t="s">
-        <v>135</v>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.2">
-      <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9">
-        <v>45447</v>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8">
+        <v>640000</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2">
-      <c r="A7" s="5" t="s">
-        <v>133</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="32" t="s">
+        <v>185</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45451</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="12" customFormat="1">
-      <c r="A9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="33" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
+      <c r="A10" s="33" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CF73E9-2645-4EC5-AEA7-A85E3720DF83}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0274E6BD-2C3E-41A2-9DE5-6A128E6C71E0}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <cols>
-    <col min="1" max="1" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="21"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
